--- a/Output/C0007266-21-Nov-2023.xlsx
+++ b/Output/C0007266-21-Nov-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpadeveloper\Documents\UiPath\Fellowes_Validation\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67E3A2E-B2BD-434F-9055-842B77781CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305FBD10-F187-41C7-9A33-D0E73C605338}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syteline Extracts" sheetId="2" r:id="rId1"/>
@@ -1907,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -2253,7 +2253,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
